--- a/assets/files/import_example.xlsx
+++ b/assets/files/import_example.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="8415"/>
+    <workbookView windowWidth="19800" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="QCB 1" sheetId="3" r:id="rId1"/>
-    <sheet name="CFD 1" sheetId="5" r:id="rId2"/>
+    <sheet name="ODT" sheetId="3" r:id="rId1"/>
+    <sheet name="SWOT" sheetId="5" r:id="rId2"/>
     <sheet name="NK" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -132,9 +132,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -146,7 +146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,62 +159,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,24 +175,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,7 +215,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,9 +231,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,7 +269,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,7 +298,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +352,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,61 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,97 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,9 +583,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +603,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,7 +641,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,192 +678,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,15 +862,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -887,9 +881,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,7 +1204,7 @@
   <sheetPr/>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:K2"/>
     </sheetView>
   </sheetViews>
@@ -1237,19 +1228,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -1272,12 +1263,12 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1309,16 +1300,16 @@
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -1366,7 +1357,7 @@
       <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="17">
         <v>1</v>
       </c>
       <c r="M4" s="5"/>
@@ -1393,7 +1384,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="19"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
@@ -1420,7 +1411,7 @@
       <c r="K6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="17">
         <v>1</v>
       </c>
       <c r="M6" s="5"/>
@@ -1449,7 +1440,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="19">
+      <c r="L7" s="17">
         <v>1</v>
       </c>
       <c r="M7" s="5"/>
@@ -1486,7 +1477,7 @@
       <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="17">
         <v>1</v>
       </c>
       <c r="M8" s="5"/>
@@ -1523,7 +1514,7 @@
       <c r="K9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="17">
         <v>1</v>
       </c>
       <c r="M9" s="5"/>
@@ -1759,8 +1750,8 @@
   <sheetPr/>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1790,11 +1781,11 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1820,13 +1811,13 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1858,16 +1849,16 @@
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -1882,7 +1873,7 @@
       <c r="X3" s="8"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>12345678</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1921,7 +1912,7 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
         <v>14</v>
@@ -1942,11 +1933,11 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="19"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="16"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1969,13 +1960,13 @@
       <c r="K6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="17">
         <v>1</v>
       </c>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1998,13 +1989,13 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="19">
+      <c r="L7" s="17">
         <v>1</v>
       </c>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="16"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2035,13 +2026,13 @@
       <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="17">
         <v>1</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="17"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2072,13 +2063,13 @@
       <c r="K9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="17">
         <v>1</v>
       </c>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>12345679</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2087,16 +2078,16 @@
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>94</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>82</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>82</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <v>82</v>
       </c>
       <c r="H10" s="2">
@@ -2111,7 +2102,7 @@
       <c r="K10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="17">
         <v>1</v>
       </c>
       <c r="M10" s="5"/>
@@ -2122,28 +2113,28 @@
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="16"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>95</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>83</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>83</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <v>83</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="19"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -2152,23 +2143,23 @@
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="16"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>96</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>84</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>84</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>84</v>
       </c>
       <c r="H12" s="2">
@@ -2183,7 +2174,7 @@
       <c r="K12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="17">
         <v>1</v>
       </c>
       <c r="M12" s="5"/>
@@ -2194,30 +2185,30 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="16"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>96</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>84</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>84</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>84</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="19">
+      <c r="L13" s="17">
         <v>1</v>
       </c>
       <c r="M13" s="5"/>
@@ -2228,23 +2219,23 @@
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="16"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>97</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>85</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <v>85</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <v>85</v>
       </c>
       <c r="H14" s="2">
@@ -2259,7 +2250,7 @@
       <c r="K14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="17">
         <v>1</v>
       </c>
       <c r="M14" s="5"/>
@@ -2270,23 +2261,23 @@
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="17"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>98</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>86</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <v>86</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <v>86</v>
       </c>
       <c r="H15" s="2">
@@ -2301,7 +2292,7 @@
       <c r="K15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="17">
         <v>1</v>
       </c>
       <c r="M15" s="5"/>

--- a/assets/files/import_example.xlsx
+++ b/assets/files/import_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="8415" activeTab="1"/>
+    <workbookView windowWidth="19800" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="ODT" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
   <si>
     <t>Santri</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Tahun Ajaran</t>
   </si>
   <si>
+    <t>Is Observation</t>
+  </si>
+  <si>
     <t>NHB Semester</t>
   </si>
   <si>
@@ -63,10 +66,16 @@
     <t>2021/2022</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
     <t>Agustus, Semester 1, Kelas 1, Level 1</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>September, Semester 1, Kelas 1, Level 1</t>
@@ -132,14 +141,36 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -152,23 +183,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -183,16 +207,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +239,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -214,16 +254,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,57 +291,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -295,6 +304,72 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -304,7 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,13 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,49 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,13 +451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,67 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,12 +590,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -607,6 +629,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -622,34 +659,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -664,17 +679,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,152 +692,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,20 +874,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1202,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1213,18 +1228,19 @@
     <col min="1" max="1" width="22.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="40.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="12.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="11.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="14.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="13.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="12.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="14.7142857142857" customWidth="1"/>
-    <col min="14" max="14" width="17.4285714285714" customWidth="1"/>
-    <col min="15" max="15" width="13.8571428571429" customWidth="1"/>
-    <col min="16" max="17" width="11.8571428571429" customWidth="1"/>
-    <col min="18" max="18" width="10.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="15.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="14.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="13.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="12.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="14.7142857142857" customWidth="1"/>
+    <col min="15" max="15" width="17.4285714285714" customWidth="1"/>
+    <col min="16" max="16" width="13.8571428571429" customWidth="1"/>
+    <col min="17" max="18" width="11.8571428571429" customWidth="1"/>
+    <col min="19" max="19" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,15 +1257,16 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="8"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="T1" s="8"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1260,37 +1277,38 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="8"/>
+      <c r="Q2" s="3"/>
+      <c r="S2" s="3"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" s="8"/>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1300,44 +1318,47 @@
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="S3" s="8"/>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="5"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="Y3" s="8"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>12345678</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
         <v>90</v>
-      </c>
-      <c r="E4" s="2">
-        <v>78</v>
       </c>
       <c r="F4" s="2">
         <v>78</v>
@@ -1346,33 +1367,34 @@
         <v>78</v>
       </c>
       <c r="H4" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" s="2">
         <v>90</v>
-      </c>
-      <c r="I4" s="2">
-        <v>78</v>
       </c>
       <c r="J4" s="2">
         <v>78</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="17">
+      <c r="K4" s="2">
+        <v>78</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="19">
         <v>1</v>
       </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="15"/>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
         <v>91</v>
-      </c>
-      <c r="E5" s="2">
-        <v>79</v>
       </c>
       <c r="F5" s="2">
         <v>79</v>
@@ -1380,55 +1402,61 @@
       <c r="G5" s="2">
         <v>79</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>79</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="2"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>91</v>
-      </c>
-      <c r="I6" s="2">
-        <v>79</v>
       </c>
       <c r="J6" s="2">
         <v>79</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="17">
+      <c r="K6" s="2">
+        <v>79</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="19">
         <v>1</v>
       </c>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
         <v>92</v>
-      </c>
-      <c r="E7" s="2">
-        <v>80</v>
       </c>
       <c r="F7" s="2">
         <v>80</v>
@@ -1436,28 +1464,31 @@
       <c r="G7" s="2">
         <v>80</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>80</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="17">
+      <c r="L7" s="2"/>
+      <c r="M7" s="19">
         <v>1</v>
       </c>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
         <v>93</v>
-      </c>
-      <c r="E8" s="2">
-        <v>81</v>
       </c>
       <c r="F8" s="2">
         <v>81</v>
@@ -1466,35 +1497,38 @@
         <v>81</v>
       </c>
       <c r="H8" s="2">
+        <v>81</v>
+      </c>
+      <c r="I8" s="2">
         <v>93</v>
-      </c>
-      <c r="I8" s="2">
-        <v>81</v>
       </c>
       <c r="J8" s="2">
         <v>81</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="17">
+      <c r="K8" s="2">
+        <v>81</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="19">
         <v>1</v>
       </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>94</v>
-      </c>
-      <c r="E9" s="2">
-        <v>82</v>
       </c>
       <c r="F9" s="2">
         <v>82</v>
@@ -1503,23 +1537,26 @@
         <v>82</v>
       </c>
       <c r="H9" s="2">
+        <v>82</v>
+      </c>
+      <c r="I9" s="2">
         <v>94</v>
-      </c>
-      <c r="I9" s="2">
-        <v>82</v>
       </c>
       <c r="J9" s="2">
         <v>82</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="17">
+      <c r="K9" s="2">
+        <v>82</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="19">
         <v>1</v>
       </c>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="7"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5"/>
@@ -1533,8 +1570,9 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="7"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
@@ -1548,8 +1586,9 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1563,8 +1602,9 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="7"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
@@ -1578,8 +1618,9 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="7"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
@@ -1593,8 +1634,9 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
@@ -1608,8 +1650,9 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1623,8 +1666,9 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="7"/>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
@@ -1638,8 +1682,9 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="7"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
@@ -1653,8 +1698,9 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="7"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
@@ -1668,8 +1714,9 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1683,8 +1730,9 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="7"/>
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
@@ -1698,8 +1746,9 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="7"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
@@ -1713,8 +1762,9 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="7"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
@@ -1728,17 +1778,20 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
+  <mergeCells count="10">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1748,28 +1801,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="49.2857142857143" customWidth="1"/>
-    <col min="3" max="4" width="11.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="14.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="13.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="12.4285714285714" customWidth="1"/>
-    <col min="13" max="13" width="14.7142857142857" customWidth="1"/>
-    <col min="18" max="18" width="17.4285714285714" customWidth="1"/>
-    <col min="19" max="19" width="13.8571428571429" customWidth="1"/>
-    <col min="20" max="21" width="11.8571428571429" customWidth="1"/>
-    <col min="22" max="22" width="10.5714285714286" customWidth="1"/>
+    <col min="3" max="5" width="11.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="14.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="13.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="12.4285714285714" customWidth="1"/>
+    <col min="14" max="14" width="14.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="17.4285714285714" customWidth="1"/>
+    <col min="20" max="20" width="13.8571428571429" customWidth="1"/>
+    <col min="21" max="22" width="11.8571428571429" customWidth="1"/>
+    <col min="23" max="23" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1785,20 +1838,21 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="3"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="8"/>
+      <c r="R1" s="3"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1806,41 +1860,42 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="8"/>
+      <c r="Q2" s="3"/>
+      <c r="S2" s="3"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" s="8"/>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1849,44 +1904,47 @@
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="S3" s="8"/>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="5"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="13">
+      <c r="Y3" s="8"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="12">
         <v>12345678</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
         <v>90</v>
-      </c>
-      <c r="E4" s="2">
-        <v>78</v>
       </c>
       <c r="F4" s="2">
         <v>78</v>
@@ -1895,33 +1953,34 @@
         <v>78</v>
       </c>
       <c r="H4" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" s="2">
         <v>90</v>
-      </c>
-      <c r="I4" s="2">
-        <v>78</v>
       </c>
       <c r="J4" s="2">
         <v>78</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="K4" s="2">
+        <v>78</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="14"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="15"/>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
         <v>91</v>
-      </c>
-      <c r="E5" s="2">
-        <v>79</v>
       </c>
       <c r="F5" s="2">
         <v>79</v>
@@ -1929,55 +1988,61 @@
       <c r="G5" s="2">
         <v>79</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>79</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="2"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>91</v>
-      </c>
-      <c r="I6" s="2">
-        <v>79</v>
       </c>
       <c r="J6" s="2">
         <v>79</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="17">
+      <c r="K6" s="2">
+        <v>79</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="19">
         <v>1</v>
       </c>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
         <v>92</v>
-      </c>
-      <c r="E7" s="2">
-        <v>80</v>
       </c>
       <c r="F7" s="2">
         <v>80</v>
@@ -1985,28 +2050,31 @@
       <c r="G7" s="2">
         <v>80</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>80</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="17">
+      <c r="L7" s="2"/>
+      <c r="M7" s="19">
         <v>1</v>
       </c>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
         <v>93</v>
-      </c>
-      <c r="E8" s="2">
-        <v>81</v>
       </c>
       <c r="F8" s="2">
         <v>81</v>
@@ -2015,35 +2083,38 @@
         <v>81</v>
       </c>
       <c r="H8" s="2">
+        <v>81</v>
+      </c>
+      <c r="I8" s="2">
         <v>93</v>
-      </c>
-      <c r="I8" s="2">
-        <v>81</v>
       </c>
       <c r="J8" s="2">
         <v>81</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="2">
+        <v>81</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="19">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="16"/>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="17">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="15"/>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>94</v>
-      </c>
-      <c r="E9" s="2">
-        <v>82</v>
       </c>
       <c r="F9" s="2">
         <v>82</v>
@@ -2052,257 +2123,276 @@
         <v>82</v>
       </c>
       <c r="H9" s="2">
+        <v>82</v>
+      </c>
+      <c r="I9" s="2">
         <v>94</v>
-      </c>
-      <c r="I9" s="2">
-        <v>82</v>
       </c>
       <c r="J9" s="2">
         <v>82</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="2">
+        <v>82</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="19">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="12">
+        <v>12345679</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="17">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="13">
-        <v>12345679</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="17">
         <v>94</v>
       </c>
-      <c r="E10" s="16">
+      <c r="F10" s="17">
         <v>82</v>
       </c>
-      <c r="F10" s="16">
+      <c r="G10" s="17">
         <v>82</v>
       </c>
-      <c r="G10" s="16">
+      <c r="H10" s="17">
         <v>82</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>90</v>
-      </c>
-      <c r="I10" s="2">
-        <v>78</v>
       </c>
       <c r="J10" s="2">
         <v>78</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="17">
+      <c r="K10" s="2">
+        <v>78</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="19">
         <v>1</v>
       </c>
-      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="14"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C11" s="15"/>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="17">
         <v>95</v>
       </c>
-      <c r="E11" s="16">
+      <c r="F11" s="17">
         <v>83</v>
       </c>
-      <c r="F11" s="16">
+      <c r="G11" s="17">
         <v>83</v>
       </c>
-      <c r="G11" s="16">
+      <c r="H11" s="17">
         <v>83</v>
       </c>
-      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="16">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="17">
         <v>96</v>
       </c>
-      <c r="E12" s="16">
+      <c r="F12" s="17">
         <v>84</v>
       </c>
-      <c r="F12" s="16">
+      <c r="G12" s="17">
         <v>84</v>
       </c>
-      <c r="G12" s="16">
+      <c r="H12" s="17">
         <v>84</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>91</v>
-      </c>
-      <c r="I12" s="2">
-        <v>79</v>
       </c>
       <c r="J12" s="2">
         <v>79</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="17">
+      <c r="K12" s="2">
+        <v>79</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="19">
         <v>1</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="7"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="16">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="17">
         <v>96</v>
       </c>
-      <c r="E13" s="16">
+      <c r="F13" s="17">
         <v>84</v>
       </c>
-      <c r="F13" s="16">
+      <c r="G13" s="17">
         <v>84</v>
       </c>
-      <c r="G13" s="16">
+      <c r="H13" s="17">
         <v>84</v>
       </c>
-      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="17">
+      <c r="L13" s="2"/>
+      <c r="M13" s="19">
         <v>1</v>
       </c>
-      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="16">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="17">
         <v>97</v>
       </c>
-      <c r="E14" s="16">
+      <c r="F14" s="17">
         <v>85</v>
       </c>
-      <c r="F14" s="16">
+      <c r="G14" s="17">
         <v>85</v>
       </c>
-      <c r="G14" s="16">
+      <c r="H14" s="17">
         <v>85</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>93</v>
-      </c>
-      <c r="I14" s="2">
-        <v>81</v>
       </c>
       <c r="J14" s="2">
         <v>81</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="17">
+      <c r="K14" s="2">
+        <v>81</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="19">
         <v>1</v>
       </c>
-      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="15"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="16"/>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="16">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="17">
         <v>98</v>
       </c>
-      <c r="E15" s="16">
+      <c r="F15" s="17">
         <v>86</v>
       </c>
-      <c r="F15" s="16">
+      <c r="G15" s="17">
         <v>86</v>
       </c>
-      <c r="G15" s="16">
+      <c r="H15" s="17">
         <v>86</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>94</v>
-      </c>
-      <c r="I15" s="2">
-        <v>82</v>
       </c>
       <c r="J15" s="2">
         <v>82</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="17">
+      <c r="K15" s="2">
+        <v>82</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="19">
         <v>1</v>
       </c>
-      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2320,8 +2410,9 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="7"/>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
@@ -2339,8 +2430,9 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="7"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
@@ -2358,8 +2450,9 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="7"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
@@ -2377,8 +2470,9 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2396,8 +2490,9 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="7"/>
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
@@ -2415,8 +2510,9 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="7"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
@@ -2434,8 +2530,9 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="7"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
@@ -2453,12 +2550,13 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
+  <mergeCells count="13">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
@@ -2466,6 +2564,9 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2478,7 +2579,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2531,7 +2632,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2554,16 +2655,16 @@
       <c r="B3" s="2"/>
       <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -2579,13 +2680,13 @@
         <v>12345678</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2">
         <v>78</v>
@@ -2603,10 +2704,10 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2">
         <v>79</v>
@@ -2624,10 +2725,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>79</v>
@@ -2645,10 +2746,10 @@
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2">
         <v>80</v>
@@ -2665,13 +2766,13 @@
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2">
         <v>80</v>
@@ -2689,10 +2790,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2">
         <v>81</v>
@@ -2710,10 +2811,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2">
         <v>81</v>
@@ -2736,10 +2837,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2">
         <v>82</v>
@@ -2761,13 +2862,13 @@
     <row r="12" spans="1:14">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2">
         <v>82</v>
@@ -2790,10 +2891,10 @@
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2">
         <v>83</v>
@@ -2816,10 +2917,10 @@
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2">
         <v>84</v>
@@ -2842,10 +2943,10 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2">
         <v>84</v>
